--- a/po_analysis_by_asin/B07HCXT59D_po_data.xlsx
+++ b/po_analysis_by_asin/B07HCXT59D_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -575,6 +576,257 @@
       </c>
       <c r="B6" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-14.35172327418276</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.60467839756018</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-11.22031407341315</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.82111924887827</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.01976397915342</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.40896942856109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.2847717918132381</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.66596066383477</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.007401388271684</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.55653649017326</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.772124002525842</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.76176845809618</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.887874348019175</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.75717153701662</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.652172400091469</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.47589033474143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.872600046099412</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.43081543088491</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.317368146611384</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36.950667553</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.976918248510371</v>
+      </c>
+      <c r="D12" t="n">
+        <v>38.76463507397703</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10.76274494955496</v>
+      </c>
+      <c r="D13" t="n">
+        <v>38.64745409864273</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>26</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.44659330546717</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39.7079432488498</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>27</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.84118810152416</v>
+      </c>
+      <c r="D15" t="n">
+        <v>40.28445708704427</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14.26206413259698</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42.7557401955756</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B07HCXT59D_po_data.xlsx
+++ b/po_analysis_by_asin/B07HCXT59D_po_data.xlsx
@@ -589,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,16 +608,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -626,12 +616,6 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>-14.35172327418276</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.60467839756018</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -640,12 +624,6 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>-11.22031407341315</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.82111924887827</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -654,12 +632,6 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
-        <v>-4.01976397915342</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.40896942856109</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -668,12 +640,6 @@
       <c r="B5" t="n">
         <v>14</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.2847717918132381</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.66596066383477</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -682,12 +648,6 @@
       <c r="B6" t="n">
         <v>16</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.007401388271684</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29.55653649017326</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -696,12 +656,6 @@
       <c r="B7" t="n">
         <v>17</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.772124002525842</v>
-      </c>
-      <c r="D7" t="n">
-        <v>29.76176845809618</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -710,12 +664,6 @@
       <c r="B8" t="n">
         <v>20</v>
       </c>
-      <c r="C8" t="n">
-        <v>5.887874348019175</v>
-      </c>
-      <c r="D8" t="n">
-        <v>34.75717153701662</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -724,12 +672,6 @@
       <c r="B9" t="n">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
-        <v>6.652172400091469</v>
-      </c>
-      <c r="D9" t="n">
-        <v>34.47589033474143</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -738,12 +680,6 @@
       <c r="B10" t="n">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
-        <v>6.872600046099412</v>
-      </c>
-      <c r="D10" t="n">
-        <v>36.43081543088491</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -752,12 +688,6 @@
       <c r="B11" t="n">
         <v>23</v>
       </c>
-      <c r="C11" t="n">
-        <v>8.317368146611384</v>
-      </c>
-      <c r="D11" t="n">
-        <v>36.950667553</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -766,12 +696,6 @@
       <c r="B12" t="n">
         <v>24</v>
       </c>
-      <c r="C12" t="n">
-        <v>8.976918248510371</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38.76463507397703</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -780,12 +704,6 @@
       <c r="B13" t="n">
         <v>25</v>
       </c>
-      <c r="C13" t="n">
-        <v>10.76274494955496</v>
-      </c>
-      <c r="D13" t="n">
-        <v>38.64745409864273</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -794,12 +712,6 @@
       <c r="B14" t="n">
         <v>26</v>
       </c>
-      <c r="C14" t="n">
-        <v>11.44659330546717</v>
-      </c>
-      <c r="D14" t="n">
-        <v>39.7079432488498</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -808,12 +720,6 @@
       <c r="B15" t="n">
         <v>27</v>
       </c>
-      <c r="C15" t="n">
-        <v>12.84118810152416</v>
-      </c>
-      <c r="D15" t="n">
-        <v>40.28445708704427</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -821,12 +727,6 @@
       </c>
       <c r="B16" t="n">
         <v>28</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14.26206413259698</v>
-      </c>
-      <c r="D16" t="n">
-        <v>42.7557401955756</v>
       </c>
     </row>
   </sheetData>
